--- a/03. erd 및 테이블정의서/테이블정의서.xlsx
+++ b/03. erd 및 테이블정의서/테이블정의서.xlsx
@@ -3,323 +3,797 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="8.5" lowestEdited="8.5" rupBuild="8.1596"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28365" windowHeight="12135" tabRatio="590" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28365" windowHeight="12135" tabRatio="693" firstSheet="9" activeTab="14"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="목차" sheetId="1" r:id="rId3"/>
     <x:sheet name="member" sheetId="2" r:id="rId4"/>
     <x:sheet name="company" sheetId="3" r:id="rId5"/>
+    <x:sheet name="career" sheetId="4" r:id="rId6"/>
+    <x:sheet name="academy" sheetId="5" r:id="rId7"/>
+    <x:sheet name="education" sheetId="6" r:id="rId8"/>
+    <x:sheet name="certificate" sheetId="7" r:id="rId9"/>
+    <x:sheet name="tech" sheetId="8" r:id="rId10"/>
+    <x:sheet name="tech_category" sheetId="9" r:id="rId11"/>
+    <x:sheet name="brief_history" sheetId="10" r:id="rId12"/>
+    <x:sheet name="board_type" sheetId="11" r:id="rId13"/>
+    <x:sheet name="board" sheetId="12" r:id="rId14"/>
+    <x:sheet name="board_content" sheetId="13" r:id="rId15"/>
+    <x:sheet name="board_content_file" sheetId="14" r:id="rId16"/>
+    <x:sheet name="comment" sheetId="15" r:id="rId17"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="256">
+  <x:si>
+    <x:t>education.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력기술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Default</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>솔루션명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글첨부파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증명서류경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입학년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급기관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판구분번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육과정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>졸업년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정이력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_startdate</x:t>
+  </x:si>
   <x:si>
     <x:t>회사명</x:t>
   </x:si>
   <x:si>
+    <x:t>순번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학원명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CA-00001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명(한글)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Primary Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - Y, 1 - N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yeonghoon.kim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 남자, 1 - 여자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_birthday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_course</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_ext</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificati_issue_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_pass_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_responsibility</x:t>
+  </x:si>
+  <x:si>
     <x:t>경력</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
+    <x:t>분류명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김영훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_organization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 일반, 1 - 갤러리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 불합격, 1 - 합격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCAHR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_career</x:t>
   </x:si>
   <x:si>
     <x:t>O</x:t>
   </x:si>
   <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김영훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yeonghoon.kim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>솔루션명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Index</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정이력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Default</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증명서류경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글첨부파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>study</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명(한글)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CA-00001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Primary Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - Y, 1 - N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사에 대한 정보를 담는 테이블</x:t>
+    <x:t>board_content_file_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOW()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category</x:t>
   </x:si>
   <x:si>
     <x:t>board_content_file</x:t>
   </x:si>
   <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_birthday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 남자, 1 - 여자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
+    <x:t>게시글 첨부파일 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history.PK, 부호없음</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -667,7 +1141,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="47">
+  <x:borders count="49">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -991,6 +1465,104 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -1075,6 +1647,48 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left>
         <x:color indexed="64"/>
       </x:left>
@@ -1092,6 +1706,20 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
@@ -1173,157 +1801,31 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
+      <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
+      <x:top style="thin">
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
       </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
+      <x:top>
+        <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1477,7 +1979,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="67">
+  <x:cellXfs count="75">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1574,19 +2076,52 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1601,13 +2136,22 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,68 +2160,50 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="33" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="33" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="49">
@@ -1911,8 +2437,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:E33"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="C32" activeCellId="0" sqref="C32:D32"/>
+    <x:sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <x:selection activeCell="C25" activeCellId="0" sqref="C25:D25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -1926,65 +2452,65 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C2" s="32" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="33"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="44"/>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="18" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C3" s="34" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D3" s="35"/>
-      <x:c r="E3" s="36"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C3" s="45" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D3" s="46"/>
+      <x:c r="E3" s="47"/>
     </x:row>
     <x:row r="4" spans="2:5">
       <x:c r="B4" s="10" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C4" s="37" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D4" s="37"/>
-      <x:c r="E4" s="38"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="48" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D4" s="48"/>
+      <x:c r="E4" s="49"/>
     </x:row>
     <x:row r="5" spans="2:5">
       <x:c r="B5" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="39" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D5" s="39"/>
-      <x:c r="E5" s="40"/>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C5" s="50" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D5" s="50"/>
+      <x:c r="E5" s="51"/>
     </x:row>
     <x:row r="6" ht="17.25" customHeight="1"/>
     <x:row r="7" spans="2:5">
-      <x:c r="B7" s="41" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C7" s="42"/>
-      <x:c r="D7" s="42"/>
-      <x:c r="E7" s="43"/>
+      <x:c r="B7" s="52" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C7" s="53"/>
+      <x:c r="D7" s="53"/>
+      <x:c r="E7" s="54"/>
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
@@ -2037,191 +2563,191 @@
     </x:row>
     <x:row r="17" ht="17.25" customHeight="1"/>
     <x:row r="18" spans="2:5">
-      <x:c r="B18" s="54" t="s">
+      <x:c r="B18" s="55" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C18" s="56"/>
+      <x:c r="D18" s="56"/>
+      <x:c r="E18" s="57"/>
+    </x:row>
+    <x:row r="19" spans="2:5">
+      <x:c r="B19" s="32" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C19" s="58" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D19" s="58"/>
+      <x:c r="E19" s="33" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:5">
+      <x:c r="B20" s="38">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" s="59" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="34" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:5">
+      <x:c r="B21" s="38">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C21" s="48" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D21" s="48"/>
+      <x:c r="E21" s="34" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:5">
+      <x:c r="B22" s="38">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C22" s="48" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D22" s="48"/>
+      <x:c r="E22" s="34" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:5">
+      <x:c r="B23" s="38">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C23" s="48" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D23" s="48"/>
+      <x:c r="E23" s="34" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:5">
+      <x:c r="B24" s="38">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C24" s="45" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D24" s="60"/>
+      <x:c r="E24" s="35" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:5">
+      <x:c r="B25" s="38">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C25" s="45" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D25" s="60"/>
+      <x:c r="E25" s="35" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:5">
+      <x:c r="B26" s="38">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C26" s="45" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D26" s="60"/>
+      <x:c r="E26" s="35" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:5">
+      <x:c r="B27" s="39">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C27" s="61" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D27" s="61"/>
+      <x:c r="E27" s="36" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="2:5">
+      <x:c r="B28" s="39">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C28" s="61" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D28" s="61"/>
+      <x:c r="E28" s="36" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:5">
+      <x:c r="B29" s="39">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C29" s="61" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D29" s="61"/>
+      <x:c r="E29" s="36" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C18" s="55"/>
-      <x:c r="D18" s="55"/>
-      <x:c r="E18" s="56"/>
-    </x:row>
-    <x:row r="19" spans="2:5">
-      <x:c r="B19" s="57" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C19" s="44" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D19" s="44"/>
-      <x:c r="E19" s="58" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="2:5">
-      <x:c r="B20" s="59">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C20" s="45" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D20" s="45"/>
-      <x:c r="E20" s="60" t="s">
+    </x:row>
+    <x:row r="30" spans="2:5">
+      <x:c r="B30" s="39">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C30" s="61" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D30" s="61"/>
+      <x:c r="E30" s="36" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="2:5">
+      <x:c r="B31" s="39">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C31" s="61" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D31" s="61"/>
+      <x:c r="E31" s="36" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:5">
+      <x:c r="B32" s="39">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="2:5">
-      <x:c r="B21" s="59">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C21" s="37" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D21" s="37"/>
-      <x:c r="E21" s="60" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="2:5">
-      <x:c r="B22" s="59">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C22" s="37" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D22" s="37"/>
-      <x:c r="E22" s="60" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:5">
-      <x:c r="B23" s="59">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C23" s="37" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D23" s="37"/>
-      <x:c r="E23" s="60" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="2:5">
-      <x:c r="B24" s="59">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C24" s="34" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D24" s="46"/>
-      <x:c r="E24" s="61" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="2:5">
-      <x:c r="B25" s="59">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C25" s="34" t="s">
+      <x:c r="C32" s="61" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D32" s="61"/>
+      <x:c r="E32" s="36" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D25" s="46"/>
-      <x:c r="E25" s="61" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="2:5">
-      <x:c r="B26" s="59">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C26" s="34" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D26" s="46"/>
-      <x:c r="E26" s="61" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="2:5">
-      <x:c r="B27" s="62">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C27" s="47" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D27" s="47"/>
-      <x:c r="E27" s="63" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="2:5">
-      <x:c r="B28" s="62">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C28" s="47" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D28" s="47"/>
-      <x:c r="E28" s="63" t="s">
+    </x:row>
+    <x:row r="33" spans="2:5">
+      <x:c r="B33" s="42">
         <x:v>14</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="2:5">
-      <x:c r="B29" s="62">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C29" s="47" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D29" s="47"/>
-      <x:c r="E29" s="63" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="2:5">
-      <x:c r="B30" s="62">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C30" s="47" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D30" s="47"/>
-      <x:c r="E30" s="63" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="2:5">
-      <x:c r="B31" s="62">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C31" s="47" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D31" s="47"/>
-      <x:c r="E31" s="63" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="2:5">
-      <x:c r="B32" s="62">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C32" s="47" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D32" s="47"/>
-      <x:c r="E32" s="63" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="2:5">
-      <x:c r="B33" s="64">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C33" s="65" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D33" s="65"/>
-      <x:c r="E33" s="66" t="s">
-        <x:v>9</x:v>
+      <x:c r="C33" s="62" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D33" s="62"/>
+      <x:c r="E33" s="37" t="s">
+        <x:v>127</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2249,18 +2775,461 @@
     <x:mergeCell ref="C32:D32"/>
   </x:mergeCells>
   <x:hyperlinks>
-    <x:hyperlink ref="B20:B20" location="EQUIPMENT!A1" tooltip="EQUIPMENT!A1"/>
-    <x:hyperlink ref="B21:B21" location="EQUIPMENT_TYPE!A1" tooltip="EQUIPMENT_TYPE!A1"/>
-    <x:hyperlink ref="B22:B22" location="WAREHOUSE!A1" tooltip="WAREHOUSE!A1"/>
+    <x:hyperlink ref="B20:B20" location="member!A1" tooltip="member!A1"/>
+    <x:hyperlink ref="B21:B21" location="company!A1" tooltip="company!A1"/>
+    <x:hyperlink ref="B22:B22" location="career!A1" tooltip="career!A1"/>
+    <x:hyperlink ref="B24:B24" location="education!A1" tooltip="education!A1"/>
+    <x:hyperlink ref="B25:B25" location="certificate!A1" tooltip="certificate!A1"/>
+    <x:hyperlink ref="B26:B26" location="tech!A1" tooltip="tech!A1"/>
+    <x:hyperlink ref="B27:B27" location="tech_category!A1" tooltip="tech_category!A1"/>
+    <x:hyperlink ref="B28:B28" location="brief_history!A1" tooltip="brief_history!A1"/>
+    <x:hyperlink ref="B29:B29" location="board_type!A1" tooltip="board_type!A1"/>
+    <x:hyperlink ref="B30:B30" location="board!A1" tooltip="board!A1"/>
+    <x:hyperlink ref="B31:B31" location="board_content!A1" tooltip="board_content!A1"/>
+    <x:hyperlink ref="B32:B32" location="board_content_file!A1" tooltip="board_content_file!A1"/>
+    <x:hyperlink ref="B33:B33" location="comment!A1" tooltip="comment!A1"/>
+    <x:hyperlink ref="B23:B23" location="academy!A1" tooltip="academy!A1"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J16"/>
+  <x:dimension ref="B2:J12"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E8" activeCellId="0" sqref="E8:J8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3"/>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F10" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3"/>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="26"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="25">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F11" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3"/>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="26"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="28">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="29" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D12" s="29" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="F12" s="6"/>
+      <x:c r="G12" s="6"/>
+      <x:c r="H12" s="6"/>
+      <x:c r="I12" s="6"/>
+      <x:c r="J12" s="31"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J8"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J8" activeCellId="0" sqref="E8:J8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="28">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="29" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D8" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F8" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G8" s="6"/>
+      <x:c r="H8" s="6" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I8" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J8" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="J8" activeCellId="0" sqref="J8:J8"/>
@@ -2281,89 +3250,89 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C2" s="32" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C3" s="45" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D3" s="45"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F3" s="48" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="49"/>
-      <x:c r="H3" s="50"/>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="J3" s="21">
-        <x:v>44070</x:v>
+        <x:v>44071</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C4" s="51" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D4" s="52"/>
-      <x:c r="E4" s="52"/>
-      <x:c r="F4" s="52"/>
-      <x:c r="G4" s="52"/>
-      <x:c r="H4" s="52"/>
-      <x:c r="I4" s="52"/>
-      <x:c r="J4" s="53"/>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>34</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>42</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>69</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>67</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>43</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>27</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -2371,229 +3340,128 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>88</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
-      <x:c r="B8" s="25">
+      <x:c r="B8" s="15">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>15</x:v>
+      <x:c r="C8" s="40" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="D8" s="40" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F8" s="3">
-        <x:v>50</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
-      <x:c r="J8" s="26"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
-      <x:c r="B9" s="25">
+      <x:c r="B9" s="15">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F9" s="3">
+      <x:c r="C9" s="40" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D9" s="40" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F9" s="16">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G9" s="3"/>
-      <x:c r="H9" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I9" s="3"/>
-      <x:c r="J9" s="27"/>
+      <x:c r="G9" s="16"/>
+      <x:c r="H9" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I9" s="16"/>
+      <x:c r="J9" s="41"/>
     </x:row>
     <x:row r="10" spans="2:10">
-      <x:c r="B10" s="25">
+      <x:c r="B10" s="15">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F10" s="3">
+      <x:c r="C10" s="40" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D10" s="40" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F10" s="16">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G10" s="16"/>
+      <x:c r="H10" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I10" s="16"/>
+      <x:c r="J10" s="41" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="28">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G10" s="3"/>
-      <x:c r="H10" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I10" s="4"/>
-      <x:c r="J10" s="26"/>
-    </x:row>
-    <x:row r="11" spans="2:10">
-      <x:c r="B11" s="25">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F11" s="3">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G11" s="3"/>
-      <x:c r="H11" s="3"/>
-      <x:c r="I11" s="4"/>
-      <x:c r="J11" s="26"/>
-    </x:row>
-    <x:row r="12" spans="2:10">
-      <x:c r="B12" s="25">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F12" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G12" s="3"/>
-      <x:c r="H12" s="3"/>
-      <x:c r="I12" s="4"/>
-      <x:c r="J12" s="26"/>
-    </x:row>
-    <x:row r="13" spans="2:10">
-      <x:c r="B13" s="25">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F13" s="3">
+      <x:c r="C11" s="29" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D11" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F11" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G13" s="3"/>
-      <x:c r="H13" s="3"/>
-      <x:c r="I13" s="3"/>
-      <x:c r="J13" s="26" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:10">
-      <x:c r="B14" s="25">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E14" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F14" s="3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G14" s="3"/>
-      <x:c r="H14" s="3"/>
-      <x:c r="I14" s="3"/>
-      <x:c r="J14" s="26"/>
-    </x:row>
-    <x:row r="15" spans="2:10">
-      <x:c r="B15" s="25">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F15" s="3"/>
-      <x:c r="G15" s="3"/>
-      <x:c r="H15" s="3"/>
-      <x:c r="I15" s="3"/>
-      <x:c r="J15" s="26"/>
-    </x:row>
-    <x:row r="16" spans="2:10">
-      <x:c r="B16" s="28">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C16" s="29" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D16" s="29" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E16" s="30" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F16" s="30">
+      <x:c r="G11" s="6"/>
+      <x:c r="H11" s="6" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G16" s="30"/>
-      <x:c r="H16" s="30" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I16" s="30">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J16" s="31" t="s">
-        <x:v>79</x:v>
+      <x:c r="J11" s="31" t="s">
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2603,17 +3471,17 @@
     <x:mergeCell ref="F3:H3"/>
     <x:mergeCell ref="C4:J4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J13"/>
+  <x:dimension ref="B2:J15"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="G16" activeCellId="0" sqref="G16:G16"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J8" activeCellId="0" sqref="I7:J8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -2631,89 +3499,89 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C2" s="32" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D2" s="32"/>
-      <x:c r="E2" s="32"/>
-      <x:c r="F2" s="32"/>
-      <x:c r="G2" s="32"/>
-      <x:c r="H2" s="32"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C3" s="45" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D3" s="45"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F3" s="48" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G3" s="49"/>
-      <x:c r="H3" s="50"/>
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="J3" s="21">
-        <x:v>44070</x:v>
+        <x:v>44071</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C4" s="51" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D4" s="52"/>
-      <x:c r="E4" s="52"/>
-      <x:c r="F4" s="52"/>
-      <x:c r="G4" s="52"/>
-      <x:c r="H4" s="52"/>
-      <x:c r="I4" s="52"/>
-      <x:c r="J4" s="53"/>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>34</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>42</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>69</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>67</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>43</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>27</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -2721,165 +3589,209 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>76</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
-      <x:c r="B8" s="25">
+      <x:c r="B8" s="15">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>46</x:v>
+      <x:c r="C8" s="40" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D8" s="40" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>17</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
-      <x:c r="B9" s="25">
+      <x:c r="B9" s="15">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F9" s="3">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G9" s="3"/>
-      <x:c r="H9" s="3" t="s">
+      <x:c r="C9" s="40" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D9" s="40" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F9" s="16">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G9" s="16"/>
+      <x:c r="H9" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I9" s="16"/>
+      <x:c r="J9" s="26" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="15">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="40" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D10" s="40" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="F10" s="16">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="16"/>
+      <x:c r="H10" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I10" s="16"/>
+      <x:c r="J10" s="41"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="40" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D11" s="40" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E11" s="16" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F11" s="16">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="G11" s="16"/>
+      <x:c r="H11" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I11" s="16"/>
+      <x:c r="J11" s="41"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="15">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="I9" s="3"/>
-      <x:c r="J9" s="27"/>
-    </x:row>
-    <x:row r="10" spans="2:10">
-      <x:c r="B10" s="25">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F10" s="3"/>
-      <x:c r="G10" s="3"/>
-      <x:c r="H10" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I10" s="4"/>
-      <x:c r="J10" s="26"/>
-    </x:row>
-    <x:row r="11" spans="2:10">
-      <x:c r="B11" s="25">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F11" s="3"/>
-      <x:c r="G11" s="3"/>
-      <x:c r="H11" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I11" s="4"/>
-      <x:c r="J11" s="26"/>
-    </x:row>
-    <x:row r="12" spans="2:10">
-      <x:c r="B12" s="25">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F12" s="3"/>
-      <x:c r="G12" s="3"/>
-      <x:c r="H12" s="3"/>
-      <x:c r="I12" s="4"/>
-      <x:c r="J12" s="26"/>
+      <x:c r="C12" s="40" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D12" s="40" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F12" s="16"/>
+      <x:c r="G12" s="16"/>
+      <x:c r="H12" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I12" s="16" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="J12" s="41"/>
     </x:row>
     <x:row r="13" spans="2:10">
-      <x:c r="B13" s="28">
+      <x:c r="B13" s="15">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C13" s="29" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D13" s="29" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E13" s="6" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F13" s="6">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G13" s="6"/>
-      <x:c r="H13" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I13" s="6">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J13" s="31" t="s">
-        <x:v>79</x:v>
-      </x:c>
+      <x:c r="C13" s="40" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D13" s="40" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="16" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F13" s="16"/>
+      <x:c r="G13" s="16"/>
+      <x:c r="H13" s="16"/>
+      <x:c r="I13" s="16"/>
+      <x:c r="J13" s="41"/>
+    </x:row>
+    <x:row r="14" spans="2:10">
+      <x:c r="B14" s="15">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="40" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D14" s="40" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F14" s="16">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G14" s="16"/>
+      <x:c r="H14" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I14" s="16"/>
+      <x:c r="J14" s="41"/>
+    </x:row>
+    <x:row r="15" spans="2:10">
+      <x:c r="B15" s="28">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="29" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D15" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F15" s="6"/>
+      <x:c r="G15" s="6"/>
+      <x:c r="H15" s="6"/>
+      <x:c r="I15" s="6"/>
+      <x:c r="J15" s="31"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -2888,7 +3800,2785 @@
     <x:mergeCell ref="F3:H3"/>
     <x:mergeCell ref="C4:J4"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J10"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="F20" activeCellId="0" sqref="F20:F20"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="15">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="40" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D8" s="40" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F8" s="16">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="16"/>
+      <x:c r="H8" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="15">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="40" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D9" s="40" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="F9" s="16"/>
+      <x:c r="G9" s="16"/>
+      <x:c r="H9" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I9" s="16"/>
+      <x:c r="J9" s="41"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="28">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="29" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D10" s="29" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E10" s="6" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F10" s="6">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G10" s="6"/>
+      <x:c r="H10" s="6" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I10" s="6"/>
+      <x:c r="J10" s="31"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J12"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J9" activeCellId="0" sqref="J9:J9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="15">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="40" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D8" s="40" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="16">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="16"/>
+      <x:c r="H8" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="15">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="40" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D9" s="40" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="F9" s="16"/>
+      <x:c r="G9" s="16"/>
+      <x:c r="H9" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I9" s="16"/>
+      <x:c r="J9" s="41"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="15">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="40" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D10" s="40" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="F10" s="16"/>
+      <x:c r="G10" s="16"/>
+      <x:c r="H10" s="16" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I10" s="16" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="J10" s="41"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="40" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D11" s="40" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E11" s="16" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="F11" s="16"/>
+      <x:c r="G11" s="16"/>
+      <x:c r="H11" s="16"/>
+      <x:c r="I11" s="16"/>
+      <x:c r="J11" s="41"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="28">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="29" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D12" s="29" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="F12" s="6"/>
+      <x:c r="G12" s="6"/>
+      <x:c r="H12" s="6"/>
+      <x:c r="I12" s="6"/>
+      <x:c r="J12" s="31"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J16"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E8" activeCellId="0" sqref="E8:H8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26"/>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="26"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="25">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="3">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3"/>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="26"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F12" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3"/>
+      <x:c r="I12" s="4"/>
+      <x:c r="J12" s="26"/>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="25">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G13" s="3"/>
+      <x:c r="H13" s="3"/>
+      <x:c r="I13" s="3"/>
+      <x:c r="J13" s="26" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:10">
+      <x:c r="B14" s="25">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F14" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G14" s="3"/>
+      <x:c r="H14" s="3"/>
+      <x:c r="I14" s="3"/>
+      <x:c r="J14" s="26"/>
+    </x:row>
+    <x:row r="15" spans="2:10">
+      <x:c r="B15" s="25">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E15" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F15" s="3"/>
+      <x:c r="G15" s="3"/>
+      <x:c r="H15" s="3"/>
+      <x:c r="I15" s="3"/>
+      <x:c r="J15" s="26"/>
+    </x:row>
+    <x:row r="16" spans="2:10">
+      <x:c r="B16" s="28">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="29" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D16" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E16" s="30" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F16" s="30">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G16" s="30"/>
+      <x:c r="H16" s="30" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I16" s="30">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J16" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J13"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F10" s="3"/>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="26"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="25">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F11" s="3"/>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="26"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F12" s="3"/>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3"/>
+      <x:c r="I12" s="4"/>
+      <x:c r="J12" s="26"/>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="28">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="29" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D13" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G13" s="6"/>
+      <x:c r="H13" s="6" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I13" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J13" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J11"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F10" s="3"/>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="26"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="28">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="29" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D11" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="6"/>
+      <x:c r="H11" s="6" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I11" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J11" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J15"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D3" s="59" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F10" s="3"/>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="4"/>
+      <x:c r="J10" s="26"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="25">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="26"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F12" s="3"/>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I12" s="4"/>
+      <x:c r="J12" s="26"/>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="25">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F13" s="3"/>
+      <x:c r="G13" s="3"/>
+      <x:c r="H13" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I13" s="4"/>
+      <x:c r="J13" s="26"/>
+    </x:row>
+    <x:row r="14" spans="2:10">
+      <x:c r="B14" s="25">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F14" s="3"/>
+      <x:c r="G14" s="3"/>
+      <x:c r="H14" s="3"/>
+      <x:c r="I14" s="4"/>
+      <x:c r="J14" s="26"/>
+    </x:row>
+    <x:row r="15" spans="2:10">
+      <x:c r="B15" s="28">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="29" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D15" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E15" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G15" s="6"/>
+      <x:c r="H15" s="6" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I15" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J15" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J16"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E15" activeCellId="0" sqref="E15:E15"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I9" s="4"/>
+      <x:c r="J9" s="26"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="69"/>
+      <x:c r="J10" s="26"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="25">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F11" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="70" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I11" s="71"/>
+      <x:c r="J11" s="72" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F12" s="3"/>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="70" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I12" s="73"/>
+      <x:c r="J12" s="72"/>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="25">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F13" s="3"/>
+      <x:c r="G13" s="3"/>
+      <x:c r="H13" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I13" s="74"/>
+      <x:c r="J13" s="26"/>
+    </x:row>
+    <x:row r="14" spans="2:10">
+      <x:c r="B14" s="25">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F14" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G14" s="3"/>
+      <x:c r="H14" s="3"/>
+      <x:c r="I14" s="4"/>
+      <x:c r="J14" s="26"/>
+    </x:row>
+    <x:row r="15" spans="2:10">
+      <x:c r="B15" s="25">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E15" s="3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F15" s="3"/>
+      <x:c r="G15" s="3"/>
+      <x:c r="H15" s="3"/>
+      <x:c r="I15" s="4"/>
+      <x:c r="J15" s="26"/>
+    </x:row>
+    <x:row r="16" spans="2:10">
+      <x:c r="B16" s="28">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="29" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D16" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F16" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G16" s="6"/>
+      <x:c r="H16" s="6" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I16" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J16" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J13"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E9" activeCellId="0" sqref="E9:J9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="3"/>
+      <x:c r="J10" s="26" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="25">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F11" s="3"/>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="70" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="26"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="25">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F12" s="3"/>
+      <x:c r="G12" s="3"/>
+      <x:c r="H12" s="3"/>
+      <x:c r="I12" s="4"/>
+      <x:c r="J12" s="26"/>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="28">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="29" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D13" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G13" s="6"/>
+      <x:c r="H13" s="6" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I13" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J13" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J11"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E7" activeCellId="0" sqref="E7:J8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="25">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F9" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G9" s="3"/>
+      <x:c r="H9" s="3" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I9" s="3"/>
+      <x:c r="J9" s="26" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="25">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G10" s="3"/>
+      <x:c r="H10" s="3" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I10" s="3"/>
+      <x:c r="J10" s="27"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="28">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="29" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D11" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="6"/>
+      <x:c r="H11" s="6" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I11" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J11" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J9"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J9" activeCellId="0" sqref="J9:J9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D2" s="43"/>
+      <x:c r="E2" s="43"/>
+      <x:c r="F2" s="43"/>
+      <x:c r="G2" s="43"/>
+      <x:c r="H2" s="43"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="59" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D3" s="59" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E3" s="14" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F3" s="63" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G3" s="64"/>
+      <x:c r="H3" s="65"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="66" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="67"/>
+      <x:c r="F4" s="67"/>
+      <x:c r="G4" s="67"/>
+      <x:c r="H4" s="67"/>
+      <x:c r="I4" s="67"/>
+      <x:c r="J4" s="68"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="25">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G8" s="3"/>
+      <x:c r="H8" s="3" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26"/>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="28">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="29" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D9" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F9" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G9" s="6"/>
+      <x:c r="H9" s="6" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="I9" s="6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J9" s="31" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/03. erd 및 테이블정의서/테이블정의서.xlsx
+++ b/03. erd 및 테이블정의서/테이블정의서.xlsx
@@ -118,610 +118,610 @@
     <x:t>게시글첨부파일</x:t>
   </x:si>
   <x:si>
+    <x:t>프로젝트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증명서류경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입학년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급기관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판구분번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육과정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>졸업년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정이력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학원명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CA-00001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명(한글)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Primary Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - Y, 1 - N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yeonghoon.kim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 남자, 1 - 여자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_birthday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_course</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_ext</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificati_issue_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_pass_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_responsibility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김영훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_organization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 일반, 1 - 갤러리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 불합격, 1 - 합격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCAHR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증명서류경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입학년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급기관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판구분번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육과정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>졸업년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Index</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정이력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학원명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CA-00001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명(한글)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Primary Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - Y, 1 - N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yeonghoon.kim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 남자, 1 - 여자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_birthday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_course</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_ext</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificati_issue_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_pass_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_del_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_mod_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_reg_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_responsibility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김영훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_organization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_reg_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 일반, 1 - 갤러리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 불합격, 1 - 합격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_del_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCAHR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력번호</x:t>
   </x:si>
   <x:si>
     <x:t>tech_no</x:t>
@@ -2455,17 +2455,17 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="44"/>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C3" s="45" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D3" s="46"/>
       <x:c r="E3" s="47"/>
@@ -2475,17 +2475,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="48" t="s">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D4" s="48"/>
       <x:c r="E4" s="49"/>
     </x:row>
     <x:row r="5" spans="2:5">
       <x:c r="B5" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C5" s="50" t="s">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D5" s="50"/>
       <x:c r="E5" s="51"/>
@@ -2493,7 +2493,7 @@
     <x:row r="6" ht="17.25" customHeight="1"/>
     <x:row r="7" spans="2:5">
       <x:c r="B7" s="52" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C7" s="53"/>
       <x:c r="D7" s="53"/>
@@ -2501,16 +2501,16 @@
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
@@ -2564,7 +2564,7 @@
     <x:row r="17" ht="17.25" customHeight="1"/>
     <x:row r="18" spans="2:5">
       <x:c r="B18" s="55" t="s">
-        <x:v>182</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C18" s="56"/>
       <x:c r="D18" s="56"/>
@@ -2572,14 +2572,14 @@
     </x:row>
     <x:row r="19" spans="2:5">
       <x:c r="B19" s="32" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C19" s="58" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D19" s="58"/>
       <x:c r="E19" s="33" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5">
@@ -2591,7 +2591,7 @@
       </x:c>
       <x:c r="D20" s="59"/>
       <x:c r="E20" s="34" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5">
@@ -2603,7 +2603,7 @@
       </x:c>
       <x:c r="D21" s="48"/>
       <x:c r="E21" s="34" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5">
@@ -2615,7 +2615,7 @@
       </x:c>
       <x:c r="D22" s="48"/>
       <x:c r="E22" s="34" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5">
@@ -2623,11 +2623,11 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="48" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D23" s="48"/>
       <x:c r="E23" s="34" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
@@ -2635,11 +2635,11 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="45" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D24" s="60"/>
       <x:c r="E24" s="35" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5">
@@ -2647,11 +2647,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="45" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D25" s="60"/>
       <x:c r="E25" s="35" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5">
@@ -2663,7 +2663,7 @@
       </x:c>
       <x:c r="D26" s="60"/>
       <x:c r="E26" s="35" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5">
@@ -2671,11 +2671,11 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="61" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D27" s="61"/>
       <x:c r="E27" s="36" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5">
@@ -2683,11 +2683,11 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C28" s="61" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D28" s="61"/>
       <x:c r="E28" s="36" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5">
@@ -2695,7 +2695,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="61" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D29" s="61"/>
       <x:c r="E29" s="36" t="s">
@@ -2711,7 +2711,7 @@
       </x:c>
       <x:c r="D30" s="61"/>
       <x:c r="E30" s="36" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5">
@@ -2719,11 +2719,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="61" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D31" s="61"/>
       <x:c r="E31" s="36" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
@@ -2731,7 +2731,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C32" s="61" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D32" s="61"/>
       <x:c r="E32" s="36" t="s">
@@ -2743,11 +2743,11 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C33" s="62" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D33" s="62"/>
       <x:c r="E33" s="37" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2821,7 +2821,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -2829,10 +2829,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -2840,19 +2840,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -2863,7 +2863,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -2876,13 +2876,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -2891,16 +2891,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -2911,22 +2911,22 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
         <x:v>255</x:v>
@@ -2937,24 +2937,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -2965,10 +2965,10 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
@@ -2986,10 +2986,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
@@ -3004,13 +3004,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>20</x:v>
@@ -3025,13 +3025,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
@@ -3077,7 +3077,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -3085,10 +3085,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -3096,11 +3096,11 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
         <x:v>23</x:v>
@@ -3108,7 +3108,7 @@
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3119,7 +3119,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -3132,13 +3132,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -3147,16 +3147,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3167,25 +3167,25 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3193,13 +3193,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="29" t="s">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D8" s="29" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F8" s="6">
         <x:v>1</x:v>
@@ -3212,7 +3212,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J8" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3253,7 +3253,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -3261,10 +3261,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -3272,19 +3272,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3295,7 +3295,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -3308,13 +3308,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -3323,16 +3323,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3340,28 +3340,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3372,10 +3372,10 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
@@ -3386,7 +3386,7 @@
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3394,13 +3394,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F9" s="16">
         <x:v>20</x:v>
@@ -3417,13 +3417,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F10" s="16">
         <x:v>1</x:v>
@@ -3434,7 +3434,7 @@
       </x:c>
       <x:c r="I10" s="16"/>
       <x:c r="J10" s="41" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -3442,13 +3442,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F11" s="6">
         <x:v>1</x:v>
@@ -3461,7 +3461,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3502,7 +3502,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -3510,10 +3510,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -3521,19 +3521,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3544,7 +3544,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -3557,13 +3557,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -3572,16 +3572,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3589,28 +3589,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>154</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3618,13 +3618,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
@@ -3635,7 +3635,7 @@
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3643,13 +3643,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F9" s="16">
         <x:v>11</x:v>
@@ -3660,7 +3660,7 @@
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="26" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -3671,10 +3671,10 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F10" s="16">
         <x:v>50</x:v>
@@ -3691,13 +3691,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F11" s="16">
         <x:v>1000</x:v>
@@ -3714,13 +3714,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="40" t="s">
-        <x:v>170</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D12" s="40" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F12" s="16"/>
       <x:c r="G12" s="16"/>
@@ -3737,13 +3737,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="40" t="s">
-        <x:v>169</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D13" s="40" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F13" s="16"/>
       <x:c r="G13" s="16"/>
@@ -3759,10 +3759,10 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="D14" s="40" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F14" s="16">
         <x:v>11</x:v>
@@ -3779,13 +3779,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="29" t="s">
-        <x:v>168</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D15" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="6"/>
@@ -3831,7 +3831,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -3839,10 +3839,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -3854,7 +3854,7 @@
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
         <x:v>29</x:v>
@@ -3862,7 +3862,7 @@
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3886,13 +3886,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -3901,16 +3901,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3921,25 +3921,25 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3947,13 +3947,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F8" s="16">
         <x:v>11</x:v>
@@ -3964,7 +3964,7 @@
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3972,13 +3972,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="16"/>
@@ -3993,13 +3993,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="29" t="s">
-        <x:v>158</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D10" s="29" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F10" s="6">
         <x:v>10</x:v>
@@ -4028,7 +4028,7 @@
   <x:dimension ref="B2:J12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="J9" activeCellId="0" sqref="J9:J9"/>
+      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -4049,7 +4049,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -4057,10 +4057,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -4068,19 +4068,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -4091,7 +4091,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>146</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -4104,13 +4104,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -4119,16 +4119,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4136,25 +4136,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
         <x:v>248</x:v>
@@ -4165,13 +4165,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="16">
         <x:v>11</x:v>
@@ -4182,7 +4182,7 @@
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -4190,13 +4190,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="16"/>
@@ -4211,13 +4211,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F10" s="16"/>
       <x:c r="G10" s="16"/>
@@ -4237,10 +4237,10 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F11" s="16"/>
       <x:c r="G11" s="16"/>
@@ -4253,13 +4253,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
@@ -4305,7 +4305,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -4313,10 +4313,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -4328,15 +4328,15 @@
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44070</x:v>
@@ -4347,7 +4347,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -4360,13 +4360,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -4375,16 +4375,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4392,28 +4392,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4421,10 +4421,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
         <x:v>12</x:v>
@@ -4434,7 +4434,7 @@
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26"/>
@@ -4444,10 +4444,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>12</x:v>
@@ -4457,7 +4457,7 @@
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -4467,10 +4467,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>12</x:v>
@@ -4480,7 +4480,7 @@
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -4490,10 +4490,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
         <x:v>12</x:v>
@@ -4511,7 +4511,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
         <x:v>14</x:v>
@@ -4532,10 +4532,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
         <x:v>20</x:v>
@@ -4547,7 +4547,7 @@
       <x:c r="H13" s="3"/>
       <x:c r="I13" s="3"/>
       <x:c r="J13" s="26" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:10">
@@ -4555,7 +4555,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
         <x:v>24</x:v>
@@ -4576,7 +4576,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
         <x:v>6</x:v>
@@ -4595,7 +4595,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="29" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D16" s="29" t="s">
         <x:v>25</x:v>
@@ -4608,13 +4608,13 @@
       </x:c>
       <x:c r="G16" s="30"/>
       <x:c r="H16" s="30" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I16" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4655,7 +4655,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -4663,10 +4663,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -4678,15 +4678,15 @@
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44070</x:v>
@@ -4697,7 +4697,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -4710,13 +4710,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -4725,16 +4725,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4742,28 +4742,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>166</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4771,24 +4771,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -4796,10 +4796,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>12</x:v>
@@ -4809,7 +4809,7 @@
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -4819,10 +4819,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>2</x:v>
@@ -4830,7 +4830,7 @@
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -4840,10 +4840,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
         <x:v>2</x:v>
@@ -4851,7 +4851,7 @@
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -4861,13 +4861,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
@@ -4880,7 +4880,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="29" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D13" s="29" t="s">
         <x:v>25</x:v>
@@ -4893,13 +4893,13 @@
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4940,7 +4940,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -4948,10 +4948,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -4963,15 +4963,15 @@
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -4982,7 +4982,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -4995,13 +4995,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -5010,16 +5010,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5027,28 +5027,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5056,24 +5056,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5081,7 +5081,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
         <x:v>9</x:v>
@@ -5094,7 +5094,7 @@
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5104,18 +5104,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -5125,7 +5125,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
         <x:v>25</x:v>
@@ -5138,13 +5138,13 @@
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5185,7 +5185,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -5193,10 +5193,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -5204,21 +5204,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D3" s="59" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5229,7 +5229,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -5242,13 +5242,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -5257,16 +5257,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5274,28 +5274,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5303,24 +5303,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5328,10 +5328,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>12</x:v>
@@ -5341,7 +5341,7 @@
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5351,18 +5351,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -5372,10 +5372,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
         <x:v>12</x:v>
@@ -5385,7 +5385,7 @@
       </x:c>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -5395,10 +5395,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>2</x:v>
@@ -5406,7 +5406,7 @@
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
       <x:c r="H12" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="26"/>
@@ -5416,10 +5416,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
         <x:v>2</x:v>
@@ -5427,7 +5427,7 @@
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="3"/>
       <x:c r="H13" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="26"/>
@@ -5437,13 +5437,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F14" s="3"/>
       <x:c r="G14" s="3"/>
@@ -5456,7 +5456,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="29" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D15" s="29" t="s">
         <x:v>25</x:v>
@@ -5469,13 +5469,13 @@
       </x:c>
       <x:c r="G15" s="6"/>
       <x:c r="H15" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I15" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J15" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5516,7 +5516,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -5524,10 +5524,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -5535,19 +5535,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5558,7 +5558,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="66" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D4" s="67"/>
       <x:c r="E4" s="67"/>
@@ -5571,13 +5571,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -5586,16 +5586,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5603,25 +5603,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
         <x:v>0</x:v>
@@ -5632,24 +5632,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5657,10 +5657,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>12</x:v>
@@ -5670,7 +5670,7 @@
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="26"/>
@@ -5680,10 +5680,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>12</x:v>
@@ -5693,7 +5693,7 @@
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="69"/>
       <x:c r="J10" s="26"/>
@@ -5703,13 +5703,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>1</x:v>
@@ -5720,7 +5720,7 @@
       </x:c>
       <x:c r="I11" s="71"/>
       <x:c r="J11" s="72" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:10">
@@ -5731,7 +5731,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
         <x:v>2</x:v>
@@ -5739,7 +5739,7 @@
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
       <x:c r="H12" s="70" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I12" s="73"/>
       <x:c r="J12" s="72"/>
@@ -5752,7 +5752,7 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
         <x:v>2</x:v>
@@ -5760,7 +5760,7 @@
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="3"/>
       <x:c r="H13" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I13" s="74"/>
       <x:c r="J13" s="26"/>
@@ -5770,10 +5770,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
         <x:v>12</x:v>
@@ -5791,13 +5791,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="3"/>
@@ -5823,13 +5823,13 @@
       </x:c>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I16" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5870,7 +5870,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -5878,10 +5878,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -5889,19 +5889,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5925,13 +5925,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -5940,16 +5940,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5957,28 +5957,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5986,24 +5986,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -6011,10 +6011,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
         <x:v>12</x:v>
@@ -6024,7 +6024,7 @@
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -6034,10 +6034,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>20</x:v>
@@ -6047,11 +6047,11 @@
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="26" t="s">
-        <x:v>214</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -6059,10 +6059,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
         <x:v>2</x:v>
@@ -6070,7 +6070,7 @@
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="70" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -6080,13 +6080,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
@@ -6099,7 +6099,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="29" t="s">
-        <x:v>165</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D13" s="29" t="s">
         <x:v>25</x:v>
@@ -6112,13 +6112,13 @@
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6159,7 +6159,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -6167,10 +6167,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -6178,19 +6178,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="59" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D3" s="59"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6214,13 +6214,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -6229,16 +6229,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6252,22 +6252,22 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6275,24 +6275,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -6303,10 +6303,10 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>11</x:v>
@@ -6317,7 +6317,7 @@
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="26" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -6325,10 +6325,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
         <x:v>12</x:v>
@@ -6338,7 +6338,7 @@
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="27"/>
@@ -6348,7 +6348,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
         <x:v>25</x:v>
@@ -6361,13 +6361,13 @@
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6408,7 +6408,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="43" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D2" s="43"/>
       <x:c r="E2" s="43"/>
@@ -6416,10 +6416,10 @@
       <x:c r="G2" s="43"/>
       <x:c r="H2" s="43"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
@@ -6430,18 +6430,18 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="D3" s="59" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F3" s="63" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G3" s="64"/>
       <x:c r="H3" s="65"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6465,13 +6465,13 @@
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
         <x:v>19</x:v>
@@ -6480,16 +6480,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6500,25 +6500,25 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>239</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6529,10 +6529,10 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>20</x:v>
@@ -6549,13 +6549,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="29" t="s">
-        <x:v>173</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D9" s="29" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F9" s="6">
         <x:v>1</x:v>
@@ -6568,7 +6568,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J9" s="31" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/03. erd 및 테이블정의서/테이블정의서.xlsx
+++ b/03. erd 및 테이블정의서/테이블정의서.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="8.5" lowestEdited="8.5" rupBuild="8.1596"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28365" windowHeight="12135" tabRatio="693" firstSheet="9" activeTab="14"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28365" windowHeight="12135" tabRatio="693" firstSheet="6" activeTab="15"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="목차" sheetId="1" r:id="rId3"/>
@@ -21,779 +21,750 @@
     <x:sheet name="board_content" sheetId="13" r:id="rId15"/>
     <x:sheet name="board_content_file" sheetId="14" r:id="rId16"/>
     <x:sheet name="comment" sheetId="15" r:id="rId17"/>
+    <x:sheet name="base_transceiver_station" sheetId="16" r:id="rId18"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="256">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="246">
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>솔루션명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Default</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글첨부파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증명서류경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력기술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정이력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급기관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육과정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판구분번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>졸업년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입학년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOW()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCAHR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_organization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학원명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김영훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yeonghoon.kim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_birthday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - Y, 1 - N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 남자, 1 - 여자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_course</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 일반, 1 - 갤러리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 불합격, 1 - 합격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CA-00001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명(한글)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Primary Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>base_transceiver_station</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_ext</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificati_issue_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_responsibility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육에 대한 정보를 담는 테이블</x:t>
+  </x:si>
   <x:si>
     <x:t>education.PK, 부호없음</x:t>
   </x:si>
   <x:si>
-    <x:t>회원번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술번호</x:t>
+    <x:t>board_type.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_pass_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 첨부파일 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국 정보를 담은 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bts_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국정보번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
   </x:si>
   <x:si>
     <x:t>VARCHAR</x:t>
   </x:si>
   <x:si>
-    <x:t>경력기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Default</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>솔루션명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글첨부파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증명서류경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입학년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급기관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판구분번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육과정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>졸업년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Index</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정이력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학원명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CA-00001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명(한글)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Primary Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - Y, 1 - N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yeonghoon.kim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 남자, 1 - 여자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_birthday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_course</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_ext</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificati_issue_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_pass_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_del_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_mod_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_reg_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_responsibility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김영훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_organization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_reg_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 일반, 1 - 갤러리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 불합격, 1 - 합격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_del_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCAHR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOW()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 첨부파일 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_mod_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history.PK, 부호없음</x:t>
+    <x:t>기지국</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -803,7 +774,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="165" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </x:numFmts>
-  <x:fonts count="24">
+  <x:fonts count="25">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -933,6 +904,12 @@
       <x:sz val="11"/>
       <x:color rgb="ff7f7f7f"/>
       <x:i val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff0000ff"/>
+      <x:u/>
     </x:font>
   </x:fonts>
   <x:fills count="35">
@@ -1549,20 +1526,6 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -1573,230 +1536,6 @@
         <x:color rgb="ff000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
         <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
@@ -1815,6 +1554,20 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -1826,6 +1579,230 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1979,7 +1956,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="75">
+  <x:cellXfs count="76">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2106,8 +2083,23 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
@@ -2115,15 +2107,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -2136,9 +2128,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -2154,22 +2143,22 @@
     <x:xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="34" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2178,7 +2167,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="34" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2187,23 +2176,14 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="49">
@@ -2435,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:E33"/>
+  <x:dimension ref="B2:E34"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="C25" activeCellId="0" sqref="C25:D25"/>
+      <x:selection activeCell="E35" activeCellId="0" sqref="E35:E35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -2452,65 +2432,65 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="44"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="49"/>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="18" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C3" s="45" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D3" s="46"/>
-      <x:c r="E3" s="47"/>
+      <x:c r="C3" s="50" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D3" s="51"/>
+      <x:c r="E3" s="52"/>
     </x:row>
     <x:row r="4" spans="2:5">
       <x:c r="B4" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="48" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D4" s="48"/>
-      <x:c r="E4" s="49"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="53" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D4" s="53"/>
+      <x:c r="E4" s="54"/>
     </x:row>
     <x:row r="5" spans="2:5">
       <x:c r="B5" s="11" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C5" s="50" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D5" s="50"/>
-      <x:c r="E5" s="51"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C5" s="55" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D5" s="55"/>
+      <x:c r="E5" s="56"/>
     </x:row>
     <x:row r="6" ht="17.25" customHeight="1"/>
     <x:row r="7" spans="2:5">
-      <x:c r="B7" s="52" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C7" s="53"/>
-      <x:c r="D7" s="53"/>
-      <x:c r="E7" s="54"/>
+      <x:c r="B7" s="57" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C7" s="58"/>
+      <x:c r="D7" s="58"/>
+      <x:c r="E7" s="59"/>
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>177</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
@@ -2563,153 +2543,153 @@
     </x:row>
     <x:row r="17" ht="17.25" customHeight="1"/>
     <x:row r="18" spans="2:5">
-      <x:c r="B18" s="55" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C18" s="56"/>
-      <x:c r="D18" s="56"/>
-      <x:c r="E18" s="57"/>
+      <x:c r="B18" s="60" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C18" s="61"/>
+      <x:c r="D18" s="61"/>
+      <x:c r="E18" s="62"/>
     </x:row>
     <x:row r="19" spans="2:5">
       <x:c r="B19" s="32" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C19" s="58" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D19" s="58"/>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C19" s="63" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D19" s="63"/>
       <x:c r="E19" s="33" t="s">
-        <x:v>117</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5">
       <x:c r="B20" s="38">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C20" s="59" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D20" s="59"/>
+      <x:c r="C20" s="64" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D20" s="64"/>
       <x:c r="E20" s="34" t="s">
-        <x:v>95</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5">
       <x:c r="B21" s="38">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C21" s="48" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D21" s="48"/>
+      <x:c r="C21" s="53" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D21" s="53"/>
       <x:c r="E21" s="34" t="s">
-        <x:v>100</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5">
       <x:c r="B22" s="38">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C22" s="48" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D22" s="48"/>
+      <x:c r="C22" s="53" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="53"/>
       <x:c r="E22" s="34" t="s">
-        <x:v>174</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5">
       <x:c r="B23" s="38">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C23" s="48" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D23" s="48"/>
+      <x:c r="C23" s="53" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D23" s="53"/>
       <x:c r="E23" s="34" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
       <x:c r="B24" s="38">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C24" s="45" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="D24" s="60"/>
+      <x:c r="C24" s="50" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D24" s="65"/>
       <x:c r="E24" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5">
       <x:c r="B25" s="38">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C25" s="45" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D25" s="60"/>
+      <x:c r="C25" s="50" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D25" s="65"/>
       <x:c r="E25" s="35" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5">
       <x:c r="B26" s="38">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C26" s="45" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D26" s="60"/>
+      <x:c r="C26" s="50" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D26" s="65"/>
       <x:c r="E26" s="35" t="s">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5">
       <x:c r="B27" s="39">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C27" s="61" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D27" s="61"/>
+      <x:c r="C27" s="66" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D27" s="66"/>
       <x:c r="E27" s="36" t="s">
-        <x:v>64</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5">
       <x:c r="B28" s="39">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C28" s="61" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D28" s="61"/>
+      <x:c r="C28" s="66" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D28" s="66"/>
       <x:c r="E28" s="36" t="s">
-        <x:v>101</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5">
       <x:c r="B29" s="39">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C29" s="61" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D29" s="61"/>
+      <x:c r="C29" s="66" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D29" s="66"/>
       <x:c r="E29" s="36" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5">
       <x:c r="B30" s="39">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C30" s="61" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D30" s="61"/>
+      <x:c r="C30" s="66" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D30" s="66"/>
       <x:c r="E30" s="36" t="s">
         <x:v>75</x:v>
       </x:c>
@@ -2718,40 +2698,52 @@
       <x:c r="B31" s="39">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C31" s="61" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D31" s="61"/>
+      <x:c r="C31" s="66" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D31" s="66"/>
       <x:c r="E31" s="36" t="s">
-        <x:v>183</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
-      <x:c r="B32" s="39">
+      <x:c r="B32" s="74">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C32" s="61" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D32" s="61"/>
+      <x:c r="C32" s="66" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D32" s="66"/>
       <x:c r="E32" s="36" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:5">
-      <x:c r="B33" s="42">
+      <x:c r="B33" s="74">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C33" s="62" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="D33" s="62"/>
-      <x:c r="E33" s="37" t="s">
-        <x:v>126</x:v>
+      <x:c r="C33" s="66" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D33" s="66"/>
+      <x:c r="E33" s="36" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="2:5">
+      <x:c r="B34" s="75">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C34" s="67" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D34" s="67"/>
+      <x:c r="E34" s="37" t="s">
+        <x:v>245</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="21">
+  <x:mergeCells count="22">
     <x:mergeCell ref="C2:E2"/>
     <x:mergeCell ref="C3:E3"/>
     <x:mergeCell ref="C4:E4"/>
@@ -2768,10 +2760,11 @@
     <x:mergeCell ref="C26:D26"/>
     <x:mergeCell ref="C27:D27"/>
     <x:mergeCell ref="C28:D28"/>
-    <x:mergeCell ref="C33:D33"/>
+    <x:mergeCell ref="C34:D34"/>
     <x:mergeCell ref="C29:D29"/>
     <x:mergeCell ref="C30:D30"/>
     <x:mergeCell ref="C31:D31"/>
+    <x:mergeCell ref="C33:D33"/>
     <x:mergeCell ref="C32:D32"/>
   </x:mergeCells>
   <x:hyperlinks>
@@ -2786,9 +2779,10 @@
     <x:hyperlink ref="B29:B29" location="board_type!A1" tooltip="board_type!A1"/>
     <x:hyperlink ref="B30:B30" location="board!A1" tooltip="board!A1"/>
     <x:hyperlink ref="B31:B31" location="board_content!A1" tooltip="board_content!A1"/>
-    <x:hyperlink ref="B32:B32" location="board_content_file!A1" tooltip="board_content_file!A1"/>
-    <x:hyperlink ref="B33:B33" location="comment!A1" tooltip="comment!A1"/>
     <x:hyperlink ref="B23:B23" location="academy!A1" tooltip="academy!A1"/>
+    <x:hyperlink ref="B33:B33" location="comment!A1"/>
+    <x:hyperlink ref="B32:B32" location="board_content_file!A1"/>
+    <x:hyperlink ref="B34:B34" location="base_transceiver_station!A1"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2818,41 +2812,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -2860,47 +2854,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -2908,28 +2902,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>255</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -2937,24 +2931,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -2962,13 +2956,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>233</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
@@ -2983,13 +2977,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
@@ -3004,13 +2998,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>20</x:v>
@@ -3025,13 +3019,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
-        <x:v>198</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>191</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
@@ -3074,41 +3068,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3116,47 +3110,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3164,28 +3158,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3193,26 +3187,26 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="29" t="s">
-        <x:v>169</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D8" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J8" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3250,41 +3244,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3292,47 +3286,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3340,28 +3334,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>215</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3369,24 +3363,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>241</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>68</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3394,20 +3388,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>186</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="16">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="41"/>
@@ -3417,24 +3411,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>205</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>228</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="16">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="16"/>
       <x:c r="H10" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="16"/>
       <x:c r="J10" s="41" t="s">
-        <x:v>208</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -3442,26 +3436,26 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>206</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3499,41 +3493,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3541,47 +3535,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3589,28 +3583,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>152</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3618,24 +3612,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>221</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>187</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3643,24 +3637,24 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>190</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F9" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="26" t="s">
-        <x:v>202</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -3668,20 +3662,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>250</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>111</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>224</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F10" s="16">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G10" s="16"/>
       <x:c r="H10" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="16"/>
       <x:c r="J10" s="41"/>
@@ -3691,20 +3685,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>172</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>177</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="16">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="G11" s="16"/>
       <x:c r="H11" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="16"/>
       <x:c r="J11" s="41"/>
@@ -3714,21 +3708,21 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="40" t="s">
-        <x:v>168</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D12" s="40" t="s">
-        <x:v>57</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s">
-        <x:v>185</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F12" s="16"/>
       <x:c r="G12" s="16"/>
       <x:c r="H12" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I12" s="16" t="s">
-        <x:v>242</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J12" s="41"/>
     </x:row>
@@ -3737,13 +3731,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="40" t="s">
-        <x:v>167</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D13" s="40" t="s">
-        <x:v>39</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s">
-        <x:v>185</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F13" s="16"/>
       <x:c r="G13" s="16"/>
@@ -3756,20 +3750,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="40" t="s">
-        <x:v>254</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D14" s="40" t="s">
-        <x:v>109</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F14" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G14" s="16"/>
       <x:c r="H14" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I14" s="16"/>
       <x:c r="J14" s="41"/>
@@ -3779,13 +3773,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="29" t="s">
-        <x:v>166</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D15" s="29" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>185</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="6"/>
@@ -3810,7 +3804,7 @@
   <x:dimension ref="B2:J10"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="F20" activeCellId="0" sqref="F20:F20"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -3828,41 +3822,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3870,47 +3864,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3918,28 +3912,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>196</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3947,24 +3941,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="16"/>
       <x:c r="H8" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>162</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3972,18 +3966,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>160</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>44</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>191</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="41"/>
@@ -3993,20 +3987,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="29" t="s">
-        <x:v>156</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D10" s="29" t="s">
-        <x:v>110</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="6">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="6"/>
       <x:c r="H10" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="6"/>
       <x:c r="J10" s="31"/>
@@ -4027,8 +4021,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J12"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="D11" activeCellId="0" sqref="D11:D11"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -4046,41 +4040,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -4088,47 +4082,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4136,28 +4130,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>248</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4165,24 +4159,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="16"/>
       <x:c r="H8" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>162</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -4190,18 +4184,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>207</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>177</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>229</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="41"/>
@@ -4211,21 +4205,21 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>199</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>57</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>194</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F10" s="16"/>
       <x:c r="G10" s="16"/>
       <x:c r="H10" s="16" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="16" t="s">
-        <x:v>242</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J10" s="41"/>
     </x:row>
@@ -4234,13 +4228,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>246</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>39</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>194</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F11" s="16"/>
       <x:c r="G11" s="16"/>
@@ -4253,19 +4247,214 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
-        <x:v>220</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>194</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
       <x:c r="H12" s="6"/>
       <x:c r="I12" s="6"/>
       <x:c r="J12" s="31"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J9"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J8" activeCellId="0" sqref="J8:J8"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="15">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="40" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="D8" s="40" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="F8" s="16">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G8" s="16"/>
+      <x:c r="H8" s="16" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26"/>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="28">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="29" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D9" s="29" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="F9" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G9" s="6"/>
+      <x:c r="H9" s="6" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="I9" s="6"/>
+      <x:c r="J9" s="31"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -4302,41 +4491,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44070</x:v>
@@ -4344,47 +4533,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4392,28 +4581,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>132</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4421,20 +4610,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26"/>
@@ -4444,20 +4633,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -4467,20 +4656,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -4490,13 +4679,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>40</x:v>
@@ -4511,13 +4700,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F12" s="3">
         <x:v>10</x:v>
@@ -4532,13 +4721,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F13" s="3">
         <x:v>1</x:v>
@@ -4547,7 +4736,7 @@
       <x:c r="H13" s="3"/>
       <x:c r="I13" s="3"/>
       <x:c r="J13" s="26" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:10">
@@ -4555,13 +4744,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F14" s="3">
         <x:v>15</x:v>
@@ -4576,13 +4765,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="3"/>
@@ -4595,26 +4784,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="29" t="s">
-        <x:v>90</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D16" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="30" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="30"/>
       <x:c r="H16" s="30" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I16" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4652,41 +4841,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44070</x:v>
@@ -4694,47 +4883,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4742,28 +4931,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>164</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4771,24 +4960,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -4796,20 +4985,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -4819,18 +5008,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -4840,18 +5029,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -4861,13 +5050,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
@@ -4880,26 +5069,26 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="29" t="s">
-        <x:v>86</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D13" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4937,41 +5126,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -4979,47 +5168,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5027,28 +5216,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>146</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5056,24 +5245,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5081,20 +5270,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5104,18 +5293,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -5125,26 +5314,26 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>74</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5182,43 +5371,43 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D3" s="59" t="s">
-        <x:v>38</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D3" s="64" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5226,47 +5415,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5274,28 +5463,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>85</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5303,24 +5492,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5328,20 +5517,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5351,18 +5540,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -5372,20 +5561,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -5395,18 +5584,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
       <x:c r="H12" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="26"/>
@@ -5416,18 +5605,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="3"/>
       <x:c r="H13" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="26"/>
@@ -5437,13 +5626,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F14" s="3"/>
       <x:c r="G14" s="3"/>
@@ -5456,26 +5645,26 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="29" t="s">
-        <x:v>84</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D15" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="6"/>
       <x:c r="H15" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I15" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J15" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5513,41 +5702,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5555,47 +5744,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5603,28 +5792,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>0</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5632,24 +5821,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5657,20 +5846,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="26"/>
@@ -5680,22 +5869,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I10" s="69"/>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I10" s="42"/>
       <x:c r="J10" s="26"/>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -5703,24 +5892,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>228</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="3"/>
-      <x:c r="H11" s="70" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="I11" s="71"/>
-      <x:c r="J11" s="72" t="s">
-        <x:v>154</x:v>
+      <x:c r="H11" s="43" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I11" s="44"/>
+      <x:c r="J11" s="45" t="s">
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:10">
@@ -5728,41 +5917,41 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
-      <x:c r="H12" s="70" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I12" s="73"/>
-      <x:c r="J12" s="72"/>
+      <x:c r="H12" s="43" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I12" s="46"/>
+      <x:c r="J12" s="45"/>
     </x:row>
     <x:row r="13" spans="2:10">
       <x:c r="B13" s="25">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="3"/>
       <x:c r="H13" s="3" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I13" s="74"/>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I13" s="47"/>
       <x:c r="J13" s="26"/>
     </x:row>
     <x:row r="14" spans="2:10">
@@ -5770,13 +5959,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F14" s="3">
         <x:v>20</x:v>
@@ -5791,13 +5980,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="3"/>
@@ -5810,26 +5999,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="29" t="s">
-        <x:v>234</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D16" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I16" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5867,41 +6056,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5909,47 +6098,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5957,28 +6146,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>155</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5986,24 +6175,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -6011,20 +6200,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -6034,24 +6223,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="26" t="s">
-        <x:v>212</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -6059,18 +6248,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="3"/>
-      <x:c r="H11" s="70" t="s">
-        <x:v>102</x:v>
+      <x:c r="H11" s="43" t="s">
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -6080,13 +6269,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>122</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
@@ -6099,26 +6288,26 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="29" t="s">
-        <x:v>163</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D13" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6156,41 +6345,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="64"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6198,47 +6387,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6246,28 +6435,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>181</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="J7" s="26" t="s">
-        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6275,24 +6464,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>137</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -6300,24 +6489,24 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="26" t="s">
-        <x:v>170</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -6325,20 +6514,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="27"/>
@@ -6348,26 +6537,26 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>210</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6405,43 +6594,43 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C2" s="43" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D2" s="43"/>
-      <x:c r="E2" s="43"/>
-      <x:c r="F2" s="43"/>
-      <x:c r="G2" s="43"/>
-      <x:c r="H2" s="43"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="48" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D2" s="48"/>
+      <x:c r="E2" s="48"/>
+      <x:c r="F2" s="48"/>
+      <x:c r="G2" s="48"/>
+      <x:c r="H2" s="48"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C3" s="59" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="D3" s="59" t="s">
-        <x:v>143</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="64" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D3" s="64" t="s">
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F3" s="63" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G3" s="64"/>
-      <x:c r="H3" s="65"/>
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="F3" s="68" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G3" s="69"/>
+      <x:c r="H3" s="70"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6449,47 +6638,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C4" s="66" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="D4" s="67"/>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="67"/>
-      <x:c r="J4" s="68"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="71" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D4" s="72"/>
+      <x:c r="E4" s="72"/>
+      <x:c r="F4" s="72"/>
+      <x:c r="G4" s="72"/>
+      <x:c r="H4" s="72"/>
+      <x:c r="I4" s="72"/>
+      <x:c r="J4" s="73"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>119</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>115</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6497,28 +6686,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="J7" s="26" t="s">
-        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6526,20 +6715,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26"/>
@@ -6549,26 +6738,26 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="29" t="s">
-        <x:v>171</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D9" s="29" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>228</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F9" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>239</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I9" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J9" s="31" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/03. erd 및 테이블정의서/테이블정의서.xlsx
+++ b/03. erd 및 테이블정의서/테이블정의서.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="8.5" lowestEdited="8.5" rupBuild="8.1596"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28365" windowHeight="12135" tabRatio="693" firstSheet="6" activeTab="15"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="11985" tabRatio="693" firstSheet="14" activeTab="16"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="목차" sheetId="1" r:id="rId3"/>
@@ -22,12 +22,454 @@
     <x:sheet name="board_content_file" sheetId="14" r:id="rId16"/>
     <x:sheet name="comment" sheetId="15" r:id="rId17"/>
     <x:sheet name="base_transceiver_station" sheetId="16" r:id="rId18"/>
+    <x:sheet name="gallery_thumbnail" sheetId="17" r:id="rId19"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="246">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="273">
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학원명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김영훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_pass_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 첨부파일 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_startdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_hit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yeonghoon.kim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_etc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_birthday</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_enddate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - Y, 1 - N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_course</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 남자, 1 - 여자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 일반, 1 - 갤러리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 - 불합격, 1 - 합격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국 정보를 담은 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brief_history_education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_mod_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_category_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_responsibility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_del_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content.FK, 부호없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_delete_yn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_address_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_reg_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gallery_thumbnail_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_issue_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리 섬네일 정보를 담고 있는 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>솔루션명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Size</x:t>
+  </x:si>
   <x:si>
     <x:t>Type</x:t>
   </x:si>
@@ -38,733 +480,373 @@
     <x:t>기술번호</x:t>
   </x:si>
   <x:si>
-    <x:t>솔루션명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career</x:t>
-  </x:si>
-  <x:si>
     <x:t>Default</x:t>
   </x:si>
   <x:si>
-    <x:t>board</x:t>
+    <x:t>자격증명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주요업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급기관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력기술</x:t>
   </x:si>
   <x:si>
     <x:t>생년월일</x:t>
   </x:si>
   <x:si>
+    <x:t>상세주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증명서류경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개정이력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기술분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판유형</x:t>
+  </x:si>
+  <x:si>
     <x:t>자격증번호</x:t>
   </x:si>
   <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글첨부파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>게시판구분</x:t>
   </x:si>
   <x:si>
-    <x:t>tech</x:t>
-  </x:si>
-  <x:si>
     <x:t>회사번호</x:t>
   </x:si>
   <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
+    <x:t>기술분류번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>졸업년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판구분번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발급일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOW()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퇴사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCAHR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입사년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bts_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육과정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국정보번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약력번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입학년월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기지국명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리 섬네일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패스워드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근무부서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수료여부</x:t>
   </x:si>
   <x:si>
     <x:t>TINYINT</x:t>
   </x:si>
   <x:si>
-    <x:t>company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글첨부파일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증명서류경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정이력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급기관</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육과정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판구분번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>졸업년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Index</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입학년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첨부파일경로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOW()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>퇴사년월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCAHR</x:t>
+    <x:t>첨부파일경로1</x:t>
   </x:si>
   <x:si>
     <x:t>회원번호</x:t>
   </x:si>
   <x:si>
+    <x:t>첨부파일경로2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file.PK, 부호없음</x:t>
+  </x:si>
+  <x:si>
     <x:t>certificate_organization</x:t>
   </x:si>
   <x:si>
+    <x:t>brief_history_upload_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>base_transceiver_station</x:t>
+  </x:si>
+  <x:si>
     <x:t>brief_history_certificate</x:t>
   </x:si>
   <x:si>
-    <x:t>brief_history_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
+    <x:t>member_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_tel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명(한글)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tech_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CA-00001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>education</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Primary Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_path1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>career_department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_path2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_name2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>board_content_file_name1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMALLINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>academy_status_yn</x:t>
   </x:si>
   <x:si>
     <x:t>INT</x:t>
   </x:si>
   <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학원명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
     <x:t>O</x:t>
   </x:si>
   <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김영훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_etc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yeonghoon.kim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_birthday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career.PK, 부호없음</x:t>
+    <x:t>member.FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gallery_content_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첨부파일1 이름</x:t>
   </x:si>
   <x:si>
     <x:t>0 - Y, 1 - N</x:t>
   </x:si>
   <x:si>
-    <x:t>member_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 남자, 1 - 여자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_course</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 일반, 1 - 갤러리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 - 불합격, 1 - 합격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_no</x:t>
+    <x:t>board_content.FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>certificate_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리 컨텐츠 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리 섬네일 경로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤러리 섬네일 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gallery_thumbnail</x:t>
   </x:si>
   <x:si>
     <x:t>member_no</x:t>
   </x:si>
   <x:si>
-    <x:t>board_type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CA-00001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_tel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명(한글)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Primary Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>base_transceiver_station</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_education</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_career</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 구분에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_ext</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_mod_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificati_issue_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_del_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_address_detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_responsibility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_reg_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>career_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_type.FK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_upload_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_del_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_reg_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>certificate_pass_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술분류에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_enddate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 첨부파일 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment_mod_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>education_delete_yn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>academy_startdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기술에 대한 정보를 담는 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brief_history_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment.PK, 부호없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tech_category_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>board_content_hit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 - 졸업, 2 - 수료, 3 - 제적, 4 - 퇴학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기지국 정보를 담은 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bts_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기지국정보번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기지국명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기지국번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TINYINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기지국</x:t>
+    <x:t>첨부파일2 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gallery_thumbnail_path</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -774,7 +856,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="165" formatCode="_-&quot;₩&quot;* #,##0_-;\\\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </x:numFmts>
-  <x:fonts count="25">
+  <x:fonts count="24">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -904,12 +986,6 @@
       <x:sz val="11"/>
       <x:color rgb="ff7f7f7f"/>
       <x:i val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff0000ff"/>
-      <x:u/>
     </x:font>
   </x:fonts>
   <x:fills count="35">
@@ -1582,6 +1658,20 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left>
         <x:color indexed="64"/>
       </x:left>
@@ -1791,20 +1881,6 @@
         <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="49">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2101,6 +2177,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -2110,7 +2192,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2128,9 +2210,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -2146,22 +2225,22 @@
     <x:xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="34" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,7 +2249,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="34" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="34" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2179,11 +2258,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="49">
@@ -2415,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:E34"/>
+  <x:dimension ref="B2:E35"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="E35" activeCellId="0" sqref="E35:E35"/>
+    <x:sheetView topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <x:selection activeCell="C37" activeCellId="0" sqref="C37:C37"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -2432,65 +2508,65 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:5">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="49"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="51"/>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="18" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C3" s="50" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D3" s="51"/>
-      <x:c r="E3" s="52"/>
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C3" s="52" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D3" s="53"/>
+      <x:c r="E3" s="54"/>
     </x:row>
     <x:row r="4" spans="2:5">
       <x:c r="B4" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="53" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="D4" s="53"/>
-      <x:c r="E4" s="54"/>
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C4" s="55" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D4" s="55"/>
+      <x:c r="E4" s="56"/>
     </x:row>
     <x:row r="5" spans="2:5">
       <x:c r="B5" s="11" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C5" s="55" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D5" s="55"/>
-      <x:c r="E5" s="56"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="57" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D5" s="57"/>
+      <x:c r="E5" s="58"/>
     </x:row>
     <x:row r="6" ht="17.25" customHeight="1"/>
     <x:row r="7" spans="2:5">
-      <x:c r="B7" s="57" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C7" s="58"/>
-      <x:c r="D7" s="58"/>
-      <x:c r="E7" s="59"/>
+      <x:c r="B7" s="59" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C7" s="60"/>
+      <x:c r="D7" s="60"/>
+      <x:c r="E7" s="61"/>
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="9" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5">
@@ -2543,207 +2619,219 @@
     </x:row>
     <x:row r="17" ht="17.25" customHeight="1"/>
     <x:row r="18" spans="2:5">
-      <x:c r="B18" s="60" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C18" s="61"/>
-      <x:c r="D18" s="61"/>
-      <x:c r="E18" s="62"/>
+      <x:c r="B18" s="62" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="63"/>
+      <x:c r="D18" s="63"/>
+      <x:c r="E18" s="64"/>
     </x:row>
     <x:row r="19" spans="2:5">
       <x:c r="B19" s="32" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C19" s="63" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D19" s="63"/>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C19" s="65" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D19" s="65"/>
       <x:c r="E19" s="33" t="s">
-        <x:v>161</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5">
       <x:c r="B20" s="38">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C20" s="64" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D20" s="64"/>
+      <x:c r="C20" s="66" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D20" s="66"/>
       <x:c r="E20" s="34" t="s">
-        <x:v>76</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:5">
       <x:c r="B21" s="38">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C21" s="53" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D21" s="53"/>
+      <x:c r="C21" s="55" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D21" s="55"/>
       <x:c r="E21" s="34" t="s">
-        <x:v>95</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:5">
       <x:c r="B22" s="38">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C22" s="53" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D22" s="53"/>
+      <x:c r="C22" s="55" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D22" s="55"/>
       <x:c r="E22" s="34" t="s">
-        <x:v>105</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:5">
       <x:c r="B23" s="38">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C23" s="53" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D23" s="53"/>
+      <x:c r="C23" s="55" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D23" s="55"/>
       <x:c r="E23" s="34" t="s">
-        <x:v>101</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:5">
       <x:c r="B24" s="38">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C24" s="50" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D24" s="65"/>
+      <x:c r="C24" s="52" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D24" s="67"/>
       <x:c r="E24" s="35" t="s">
-        <x:v>79</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:5">
       <x:c r="B25" s="38">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C25" s="50" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D25" s="65"/>
+      <x:c r="C25" s="52" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D25" s="67"/>
       <x:c r="E25" s="35" t="s">
-        <x:v>83</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:5">
       <x:c r="B26" s="38">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C26" s="50" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D26" s="65"/>
+      <x:c r="C26" s="52" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D26" s="67"/>
       <x:c r="E26" s="35" t="s">
-        <x:v>84</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:5">
       <x:c r="B27" s="39">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C27" s="66" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D27" s="66"/>
+      <x:c r="C27" s="68" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D27" s="68"/>
       <x:c r="E27" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:5">
       <x:c r="B28" s="39">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C28" s="66" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D28" s="66"/>
+      <x:c r="C28" s="68" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D28" s="68"/>
       <x:c r="E28" s="36" t="s">
-        <x:v>87</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:5">
       <x:c r="B29" s="39">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C29" s="66" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D29" s="66"/>
+      <x:c r="C29" s="68" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D29" s="68"/>
       <x:c r="E29" s="36" t="s">
-        <x:v>11</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:5">
       <x:c r="B30" s="39">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C30" s="66" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D30" s="66"/>
+      <x:c r="C30" s="68" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D30" s="68"/>
       <x:c r="E30" s="36" t="s">
-        <x:v>75</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:5">
       <x:c r="B31" s="39">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C31" s="66" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D31" s="66"/>
+      <x:c r="C31" s="68" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D31" s="68"/>
       <x:c r="E31" s="36" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:5">
-      <x:c r="B32" s="74">
+      <x:c r="B32" s="48">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C32" s="66" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="D32" s="66"/>
+      <x:c r="C32" s="68" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D32" s="68"/>
       <x:c r="E32" s="36" t="s">
-        <x:v>18</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:5">
-      <x:c r="B33" s="74">
+      <x:c r="B33" s="39">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C33" s="66" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="D33" s="66"/>
+      <x:c r="C33" s="68" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D33" s="68"/>
       <x:c r="E33" s="36" t="s">
-        <x:v>103</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:5">
-      <x:c r="B34" s="75">
+      <x:c r="B34" s="48">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C34" s="67" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="D34" s="67"/>
-      <x:c r="E34" s="37" t="s">
-        <x:v>245</x:v>
+      <x:c r="C34" s="68" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D34" s="68"/>
+      <x:c r="E34" s="36" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:5">
+      <x:c r="B35" s="49">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C35" s="69" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D35" s="69"/>
+      <x:c r="E35" s="37" t="s">
+        <x:v>138</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="22">
+  <x:mergeCells count="23">
     <x:mergeCell ref="C2:E2"/>
     <x:mergeCell ref="C3:E3"/>
     <x:mergeCell ref="C4:E4"/>
@@ -2760,12 +2848,13 @@
     <x:mergeCell ref="C26:D26"/>
     <x:mergeCell ref="C27:D27"/>
     <x:mergeCell ref="C28:D28"/>
-    <x:mergeCell ref="C34:D34"/>
+    <x:mergeCell ref="C35:D35"/>
     <x:mergeCell ref="C29:D29"/>
     <x:mergeCell ref="C30:D30"/>
     <x:mergeCell ref="C31:D31"/>
+    <x:mergeCell ref="C34:D34"/>
+    <x:mergeCell ref="C32:D32"/>
     <x:mergeCell ref="C33:D33"/>
-    <x:mergeCell ref="C32:D32"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B20:B20" location="member!A1" tooltip="member!A1"/>
@@ -2780,9 +2869,9 @@
     <x:hyperlink ref="B30:B30" location="board!A1" tooltip="board!A1"/>
     <x:hyperlink ref="B31:B31" location="board_content!A1" tooltip="board_content!A1"/>
     <x:hyperlink ref="B23:B23" location="academy!A1" tooltip="academy!A1"/>
-    <x:hyperlink ref="B33:B33" location="comment!A1"/>
-    <x:hyperlink ref="B32:B32" location="board_content_file!A1"/>
-    <x:hyperlink ref="B34:B34" location="base_transceiver_station!A1"/>
+    <x:hyperlink ref="B34:B34" location="comment!A1" tooltip="comment!A1"/>
+    <x:hyperlink ref="B32:B32" location="board_content_file!A1" tooltip="board_content_file!A1"/>
+    <x:hyperlink ref="B35:B35" location="base_transceiver_station!A1" tooltip="base_transceiver_station!A1"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2794,7 +2883,7 @@
   <x:dimension ref="B2:J12"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E8" activeCellId="0" sqref="E8:J8"/>
+      <x:selection activeCell="A9" activeCellId="0" sqref="A9:A9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -2812,41 +2901,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -2854,47 +2943,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -2902,28 +2991,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>176</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -2931,24 +3020,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -2956,13 +3045,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
@@ -2977,13 +3066,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
@@ -2998,13 +3087,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>20</x:v>
@@ -3019,13 +3108,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="29" t="s">
-        <x:v>73</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D12" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="6"/>
@@ -3068,41 +3157,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3110,47 +3199,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3158,28 +3247,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>199</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3187,26 +3276,26 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="29" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D8" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F8" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="6"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J8" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3225,8 +3314,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="J8" activeCellId="0" sqref="J8:J8"/>
+    <x:sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -3244,41 +3333,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3286,47 +3375,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3334,28 +3423,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>144</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3363,24 +3452,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>147</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>45</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>202</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3388,20 +3477,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>152</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>51</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="16">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="41"/>
@@ -3411,24 +3500,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>124</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>26</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F10" s="16">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="16"/>
       <x:c r="H10" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="16"/>
       <x:c r="J10" s="41" t="s">
-        <x:v>146</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -3436,26 +3525,26 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>116</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3474,8 +3563,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J15"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="J8" activeCellId="0" sqref="I7:J8"/>
+    <x:sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="H14" activeCellId="0" sqref="H14:H14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -3493,41 +3582,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3535,47 +3624,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3583,28 +3672,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>178</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3612,24 +3701,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>155</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>48</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>139</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3637,24 +3726,24 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F9" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -3662,20 +3751,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="40" t="s">
-        <x:v>228</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D10" s="40" t="s">
-        <x:v>99</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F10" s="16">
-        <x:v>50</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G10" s="16"/>
       <x:c r="H10" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="16"/>
       <x:c r="J10" s="41"/>
@@ -3685,20 +3774,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="40" t="s">
-        <x:v>188</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D11" s="40" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F11" s="16">
-        <x:v>1000</x:v>
-      </x:c>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="F11" s="16"/>
       <x:c r="G11" s="16"/>
       <x:c r="H11" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="16"/>
       <x:c r="J11" s="41"/>
@@ -3708,21 +3795,21 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="40" t="s">
-        <x:v>194</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D12" s="40" t="s">
-        <x:v>32</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E12" s="16" t="s">
-        <x:v>151</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F12" s="16"/>
       <x:c r="G12" s="16"/>
       <x:c r="H12" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="16" t="s">
-        <x:v>64</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="J12" s="41"/>
     </x:row>
@@ -3731,13 +3818,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="40" t="s">
-        <x:v>182</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D13" s="40" t="s">
-        <x:v>59</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E13" s="16" t="s">
-        <x:v>151</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F13" s="16"/>
       <x:c r="G13" s="16"/>
@@ -3750,20 +3837,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="40" t="s">
-        <x:v>234</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D14" s="40" t="s">
-        <x:v>97</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E14" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G14" s="16"/>
       <x:c r="H14" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="16"/>
       <x:c r="J14" s="41"/>
@@ -3773,13 +3860,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="29" t="s">
-        <x:v>184</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D15" s="29" t="s">
-        <x:v>36</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="6"/>
@@ -3801,7 +3888,257 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J10"/>
+  <x:dimension ref="B2:J12"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="G12" activeCellId="0" sqref="G12:G12"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="3.62890625" customWidth="1"/>
+    <x:col min="2" max="2" width="15.62890625" customWidth="1"/>
+    <x:col min="3" max="3" width="24.37890625" customWidth="1"/>
+    <x:col min="4" max="4" width="24.12890625" customWidth="1"/>
+    <x:col min="5" max="5" width="15.62890625" customWidth="1"/>
+    <x:col min="6" max="8" width="12.62890625" customWidth="1"/>
+    <x:col min="9" max="9" width="17.58984375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="34.87890625" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" ht="17.25" customHeight="1"/>
+    <x:row r="2" spans="2:10">
+      <x:c r="B2" s="8" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
+      <x:c r="I2" s="12" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:10">
+      <x:c r="B3" s="13" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
+      <x:c r="I3" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="21">
+        <x:v>44071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:10">
+      <x:c r="B4" s="11" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
+    </x:row>
+    <x:row r="5" ht="17.25" customHeight="1"/>
+    <x:row r="6" spans="2:10">
+      <x:c r="B6" s="22" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C6" s="23" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D6" s="23" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E6" s="23" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F6" s="23" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G6" s="23" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="H6" s="23" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="I6" s="23" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="J6" s="24" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:10">
+      <x:c r="B7" s="25">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I7" s="3" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="J7" s="26" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:10">
+      <x:c r="B8" s="15">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C8" s="40" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D8" s="40" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E8" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="16">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G8" s="16"/>
+      <x:c r="H8" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I8" s="3"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:10">
+      <x:c r="B9" s="15">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C9" s="40" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="D9" s="40" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F9" s="16"/>
+      <x:c r="G9" s="16"/>
+      <x:c r="H9" s="16"/>
+      <x:c r="I9" s="16"/>
+      <x:c r="J9" s="41"/>
+    </x:row>
+    <x:row r="10" spans="2:10">
+      <x:c r="B10" s="15">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C10" s="40" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="D10" s="40" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F10" s="16"/>
+      <x:c r="G10" s="16"/>
+      <x:c r="H10" s="16"/>
+      <x:c r="I10" s="16"/>
+      <x:c r="J10" s="41"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="40" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="D11" s="40" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E11" s="16" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F11" s="16"/>
+      <x:c r="G11" s="16"/>
+      <x:c r="H11" s="16"/>
+      <x:c r="I11" s="16"/>
+      <x:c r="J11" s="41"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="28">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="29" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D12" s="29" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F12" s="6"/>
+      <x:c r="G12" s="6"/>
+      <x:c r="H12" s="6"/>
+      <x:c r="I12" s="6"/>
+      <x:c r="J12" s="31"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="C2:H2"/>
+    <x:mergeCell ref="C3:D3"/>
+    <x:mergeCell ref="F3:H3"/>
+    <x:mergeCell ref="C4:J4"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:dimension ref="B2:J13"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
@@ -3822,41 +4159,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -3864,47 +4201,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -3912,28 +4249,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>74</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -3941,24 +4278,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>216</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>37</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="16">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="16"/>
       <x:c r="H8" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>189</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -3966,44 +4303,107 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="40" t="s">
-        <x:v>192</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D9" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E9" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="16"/>
       <x:c r="J9" s="41"/>
     </x:row>
     <x:row r="10" spans="2:10">
-      <x:c r="B10" s="28">
+      <x:c r="B10" s="15">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C10" s="29" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="D10" s="29" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E10" s="6" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F10" s="6">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G10" s="6"/>
-      <x:c r="H10" s="6" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I10" s="6"/>
-      <x:c r="J10" s="31"/>
+      <x:c r="C10" s="40" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D10" s="40" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E10" s="16" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="F10" s="16"/>
+      <x:c r="G10" s="16"/>
+      <x:c r="H10" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I10" s="16" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="J10" s="41"/>
+    </x:row>
+    <x:row r="11" spans="2:10">
+      <x:c r="B11" s="15">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="40" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="D11" s="40" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="E11" s="16" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="F11" s="16">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G11" s="16"/>
+      <x:c r="H11" s="16" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="I11" s="16"/>
+      <x:c r="J11" s="41" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="15">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="40" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D12" s="40" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="F12" s="16"/>
+      <x:c r="G12" s="16"/>
+      <x:c r="H12" s="16"/>
+      <x:c r="I12" s="16"/>
+      <x:c r="J12" s="41"/>
+    </x:row>
+    <x:row r="13" spans="2:10">
+      <x:c r="B13" s="28">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="29" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D13" s="29" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E13" s="6" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="F13" s="6"/>
+      <x:c r="G13" s="6"/>
+      <x:c r="H13" s="6"/>
+      <x:c r="I13" s="6"/>
+      <x:c r="J13" s="31"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -4017,12 +4417,12 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J12"/>
+  <x:dimension ref="B2:J9"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="D16" activeCellId="0" sqref="D16:D16"/>
+      <x:selection activeCell="C27" activeCellId="0" sqref="C27:C27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -4040,89 +4440,89 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
-        <x:v>44071</x:v>
+        <x:v>44073</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4130,28 +4530,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>232</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4159,107 +4559,46 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>216</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>37</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>89</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F8" s="16">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G8" s="16"/>
       <x:c r="H8" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
-      <x:c r="J8" s="26" t="s">
-        <x:v>189</x:v>
-      </x:c>
+      <x:c r="J8" s="26"/>
     </x:row>
     <x:row r="9" spans="2:10">
-      <x:c r="B9" s="15">
+      <x:c r="B9" s="28">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C9" s="40" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D9" s="40" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F9" s="16"/>
-      <x:c r="G9" s="16"/>
-      <x:c r="H9" s="16" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I9" s="16"/>
-      <x:c r="J9" s="41"/>
-    </x:row>
-    <x:row r="10" spans="2:10">
-      <x:c r="B10" s="15">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C10" s="40" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="D10" s="40" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E10" s="16" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="F10" s="16"/>
-      <x:c r="G10" s="16"/>
-      <x:c r="H10" s="16" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I10" s="16" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J10" s="41"/>
-    </x:row>
-    <x:row r="11" spans="2:10">
-      <x:c r="B11" s="15">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C11" s="40" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="D11" s="40" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E11" s="16" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="F11" s="16"/>
-      <x:c r="G11" s="16"/>
-      <x:c r="H11" s="16"/>
-      <x:c r="I11" s="16"/>
-      <x:c r="J11" s="41"/>
-    </x:row>
-    <x:row r="12" spans="2:10">
-      <x:c r="B12" s="28">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C12" s="29" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="D12" s="29" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="6" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="F12" s="6"/>
-      <x:c r="G12" s="6"/>
-      <x:c r="H12" s="6"/>
-      <x:c r="I12" s="6"/>
-      <x:c r="J12" s="31"/>
+      <x:c r="C9" s="29" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D9" s="29" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F9" s="6">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G9" s="6"/>
+      <x:c r="H9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I9" s="6"/>
+      <x:c r="J9" s="31"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -4273,11 +4612,11 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="J8" activeCellId="0" sqref="J8:J8"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4296,41 +4635,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44073</x:v>
@@ -4338,47 +4677,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4386,28 +4725,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>232</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4415,43 +4754,43 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="40" t="s">
-        <x:v>216</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s">
-        <x:v>241</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E8" s="16" t="s">
-        <x:v>244</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F8" s="16">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G8" s="16"/>
       <x:c r="H8" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
-      <x:c r="J8" s="26"/>
+      <x:c r="J8" s="26" t="s">
+        <x:v>264</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="28">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="29" t="s">
-        <x:v>210</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D9" s="29" t="s">
-        <x:v>242</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="F9" s="6">
-        <x:v>2</x:v>
-      </x:c>
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F9" s="6"/>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>237</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="6"/>
       <x:c r="J9" s="31"/>
@@ -4472,8 +4811,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J16"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E8" activeCellId="0" sqref="E8:H8"/>
+    <x:sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="D25" activeCellId="0" sqref="D25:D25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -4491,41 +4830,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44070</x:v>
@@ -4533,47 +4872,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4581,28 +4920,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>118</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4610,20 +4949,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26"/>
@@ -4633,20 +4972,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F9" s="3">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="F9" s="3"/>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -4656,20 +4993,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -4679,13 +5016,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>40</x:v>
@@ -4700,13 +5037,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F12" s="3">
         <x:v>10</x:v>
@@ -4721,13 +5058,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F13" s="3">
         <x:v>1</x:v>
@@ -4736,7 +5073,7 @@
       <x:c r="H13" s="3"/>
       <x:c r="I13" s="3"/>
       <x:c r="J13" s="26" t="s">
-        <x:v>133</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:10">
@@ -4744,13 +5081,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F14" s="3">
         <x:v>15</x:v>
@@ -4765,15 +5102,17 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F15" s="3"/>
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F15" s="3">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="G15" s="3"/>
       <x:c r="H15" s="3"/>
       <x:c r="I15" s="3"/>
@@ -4784,26 +5123,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="29" t="s">
-        <x:v>215</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D16" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E16" s="30" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F16" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="30"/>
       <x:c r="H16" s="30" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I16" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4823,7 +5162,7 @@
   <x:dimension ref="B2:J13"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
+      <x:selection activeCell="A12" activeCellId="0" sqref="A12:A12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -4841,41 +5180,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
+      <x:c r="E3" s="14" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
-      <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44070</x:v>
@@ -4883,47 +5222,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -4931,28 +5270,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>211</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -4960,24 +5299,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -4985,20 +5324,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5008,18 +5347,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -5029,18 +5368,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -5050,13 +5389,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
@@ -5069,26 +5408,26 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="29" t="s">
-        <x:v>208</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D13" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G13" s="6"/>
       <x:c r="H13" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5105,10 +5444,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J11"/>
+  <x:dimension ref="B2:J12"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C36" activeCellId="0" sqref="C36:C36"/>
+    <x:sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J10" activeCellId="0" sqref="J10:J10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -5126,41 +5465,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5168,47 +5507,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5216,28 +5555,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>127</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5245,24 +5584,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5270,20 +5609,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5293,47 +5632,70 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F10" s="3"/>
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F10" s="3">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I10" s="4"/>
-      <x:c r="J10" s="26"/>
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="I10" s="3"/>
+      <x:c r="J10" s="27"/>
     </x:row>
     <x:row r="11" spans="2:10">
-      <x:c r="B11" s="28">
+      <x:c r="B11" s="25">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C11" s="29" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="D11" s="29" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E11" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F11" s="6">
+      <x:c r="C11" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F11" s="3"/>
+      <x:c r="G11" s="3"/>
+      <x:c r="H11" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I11" s="4"/>
+      <x:c r="J11" s="26"/>
+    </x:row>
+    <x:row r="12" spans="2:10">
+      <x:c r="B12" s="28">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="29" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D12" s="29" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F12" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G11" s="6"/>
-      <x:c r="H11" s="6" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I11" s="6">
+      <x:c r="G12" s="6"/>
+      <x:c r="H12" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I12" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J11" s="31" t="s">
-        <x:v>128</x:v>
+      <x:c r="J12" s="31" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5350,10 +5712,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J15"/>
+  <x:dimension ref="B2:J16"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
+      <x:selection activeCell="A15" activeCellId="0" sqref="A15:A15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -5371,43 +5733,43 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D3" s="64" t="s">
-        <x:v>47</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D3" s="66" t="s">
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5415,47 +5777,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5463,28 +5825,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>207</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5492,24 +5854,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5517,20 +5879,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>50</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -5540,18 +5902,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="4"/>
       <x:c r="J10" s="26"/>
@@ -5561,20 +5923,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -5584,18 +5946,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
       <x:c r="H12" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="26"/>
@@ -5605,18 +5967,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="3"/>
       <x:c r="H13" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="4"/>
       <x:c r="J13" s="26"/>
@@ -5626,45 +5988,72 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="F14" s="3"/>
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F14" s="3">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="G14" s="3"/>
-      <x:c r="H14" s="3"/>
-      <x:c r="I14" s="4"/>
-      <x:c r="J14" s="26"/>
+      <x:c r="H14" s="3" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="I14" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J14" s="26" t="s">
+        <x:v>263</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="2:10">
-      <x:c r="B15" s="28">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C15" s="29" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="D15" s="29" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F15" s="6">
+      <x:c r="B15" s="25">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E15" s="3" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F15" s="3"/>
+      <x:c r="G15" s="3"/>
+      <x:c r="H15" s="3"/>
+      <x:c r="I15" s="4"/>
+      <x:c r="J15" s="26"/>
+    </x:row>
+    <x:row r="16" spans="2:10">
+      <x:c r="B16" s="28">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="29" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D16" s="29" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F16" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G15" s="6"/>
-      <x:c r="H15" s="6" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I15" s="6">
+      <x:c r="G16" s="6"/>
+      <x:c r="H16" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I16" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J15" s="31" t="s">
-        <x:v>128</x:v>
+      <x:c r="J16" s="31" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5683,8 +6072,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J16"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E15" activeCellId="0" sqref="E15:E15"/>
+    <x:sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="G36" activeCellId="0" sqref="G36:G36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -5702,41 +6091,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -5744,47 +6133,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5792,28 +6181,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>201</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5821,24 +6210,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5846,20 +6235,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="4"/>
       <x:c r="J9" s="26"/>
@@ -5869,21 +6258,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
-      <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="H10" s="3"/>
       <x:c r="I10" s="42"/>
       <x:c r="J10" s="26"/>
     </x:row>
@@ -5892,24 +6279,24 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F11" s="3">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="43" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="44"/>
       <x:c r="J11" s="45" t="s">
-        <x:v>235</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:10">
@@ -5917,18 +6304,18 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E12" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
       <x:c r="H12" s="43" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="46"/>
       <x:c r="J12" s="45"/>
@@ -5938,19 +6325,17 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="3"/>
-      <x:c r="H13" s="3" t="s">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="H13" s="3"/>
       <x:c r="I13" s="47"/>
       <x:c r="J13" s="26"/>
     </x:row>
@@ -5959,13 +6344,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F14" s="3">
         <x:v>20</x:v>
@@ -5980,13 +6365,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E15" s="3" t="s">
-        <x:v>164</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="3"/>
@@ -5999,26 +6384,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="29" t="s">
-        <x:v>226</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D16" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F16" s="6">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G16" s="6"/>
       <x:c r="H16" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I16" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J16" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6035,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="B2:J13"/>
+  <x:dimension ref="B2:J14"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E9" activeCellId="0" sqref="E9:J9"/>
+      <x:selection activeCell="A13" activeCellId="0" sqref="A13:A13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -6056,41 +6441,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6098,47 +6483,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6146,28 +6531,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>180</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6175,24 +6560,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -6200,20 +6585,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="27"/>
@@ -6223,24 +6608,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="26" t="s">
-        <x:v>150</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:10">
@@ -6248,18 +6633,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E11" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="3"/>
       <x:c r="H11" s="43" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="4"/>
       <x:c r="J11" s="26"/>
@@ -6269,45 +6654,68 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F12" s="3">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="F12" s="3"/>
       <x:c r="G12" s="3"/>
-      <x:c r="H12" s="3"/>
+      <x:c r="H12" s="43" t="s">
+        <x:v>259</x:v>
+      </x:c>
       <x:c r="I12" s="4"/>
       <x:c r="J12" s="26"/>
     </x:row>
     <x:row r="13" spans="2:10">
-      <x:c r="B13" s="28">
+      <x:c r="B13" s="25">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C13" s="29" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="D13" s="29" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E13" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F13" s="6">
+      <x:c r="C13" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F13" s="3"/>
+      <x:c r="G13" s="3"/>
+      <x:c r="H13" s="3"/>
+      <x:c r="I13" s="4"/>
+      <x:c r="J13" s="26"/>
+    </x:row>
+    <x:row r="14" spans="2:10">
+      <x:c r="B14" s="28">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="29" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D14" s="29" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E14" s="6" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F14" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G13" s="6"/>
-      <x:c r="H13" s="6" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I13" s="6">
+      <x:c r="G14" s="6"/>
+      <x:c r="H14" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I14" s="6">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J13" s="31" t="s">
-        <x:v>128</x:v>
+      <x:c r="J14" s="31" t="s">
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6327,7 +6735,7 @@
   <x:dimension ref="B2:J11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:J8"/>
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -6345,41 +6753,41 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="64"/>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D3" s="66"/>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6387,47 +6795,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6435,28 +6843,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6464,24 +6872,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26" t="s">
-        <x:v>123</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -6489,24 +6897,24 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>233</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F9" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G9" s="3"/>
       <x:c r="H9" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="3"/>
       <x:c r="J9" s="26" t="s">
-        <x:v>181</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -6514,20 +6922,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F10" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G10" s="3"/>
       <x:c r="H10" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I10" s="3"/>
       <x:c r="J10" s="27"/>
@@ -6537,26 +6945,26 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="29" t="s">
-        <x:v>143</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D11" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="6"/>
       <x:c r="H11" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I11" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6575,8 +6983,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="B2:J9"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="J9" activeCellId="0" sqref="J9:J9"/>
+    <x:sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="I9" activeCellId="0" sqref="I9:I9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.399999999999999"/>
@@ -6594,43 +7002,43 @@
     <x:row r="1" ht="17.25" customHeight="1"/>
     <x:row r="2" spans="2:10">
       <x:c r="B2" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="48" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D2" s="48"/>
-      <x:c r="E2" s="48"/>
-      <x:c r="F2" s="48"/>
-      <x:c r="G2" s="48"/>
-      <x:c r="H2" s="48"/>
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C2" s="50" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D2" s="50"/>
+      <x:c r="E2" s="50"/>
+      <x:c r="F2" s="50"/>
+      <x:c r="G2" s="50"/>
+      <x:c r="H2" s="50"/>
       <x:c r="I2" s="12" t="s">
-        <x:v>106</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:10">
       <x:c r="B3" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="64" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D3" s="64" t="s">
-        <x:v>130</x:v>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C3" s="66" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D3" s="66" t="s">
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E3" s="14" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="F3" s="68" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G3" s="69"/>
-      <x:c r="H3" s="70"/>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F3" s="70" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="G3" s="71"/>
+      <x:c r="H3" s="72"/>
       <x:c r="I3" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="21">
         <x:v>44071</x:v>
@@ -6638,47 +7046,47 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="71" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="D4" s="72"/>
-      <x:c r="E4" s="72"/>
-      <x:c r="F4" s="72"/>
-      <x:c r="G4" s="72"/>
-      <x:c r="H4" s="72"/>
-      <x:c r="I4" s="72"/>
-      <x:c r="J4" s="73"/>
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C4" s="73" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D4" s="74"/>
+      <x:c r="E4" s="74"/>
+      <x:c r="F4" s="74"/>
+      <x:c r="G4" s="74"/>
+      <x:c r="H4" s="74"/>
+      <x:c r="I4" s="74"/>
+      <x:c r="J4" s="75"/>
     </x:row>
     <x:row r="5" ht="17.25" customHeight="1"/>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C6" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>50</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="23" t="s">
-        <x:v>4</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G6" s="23" t="s">
-        <x:v>168</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>159</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I6" s="23" t="s">
-        <x:v>7</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J6" s="24" t="s">
-        <x:v>110</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -6686,28 +7094,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>233</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -6715,20 +7123,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>229</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="3"/>
       <x:c r="H8" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I8" s="3"/>
       <x:c r="J8" s="26"/>
@@ -6738,26 +7146,26 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="29" t="s">
-        <x:v>186</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D9" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F9" s="6">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G9" s="6"/>
       <x:c r="H9" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I9" s="6">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J9" s="31" t="s">
-        <x:v>128</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
